--- a/Mayo/bonos_may.xlsx
+++ b/Mayo/bonos_may.xlsx
@@ -8,34 +8,30 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UCA\IA2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BDAAD7B-1B9D-4B58-B77C-45FE4DD5A10F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCA1AA9F-69C7-405E-BC69-B8B4B4308EEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
-  <si>
-    <t>Agente</t>
-  </si>
-  <si>
-    <t>PRODUCTIVIDAD</t>
-  </si>
-  <si>
-    <t>ISSS</t>
-  </si>
-  <si>
-    <t>AFP</t>
-  </si>
-  <si>
-    <t>RENTA</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>Christian Alexander Cordova Escoto</t>
   </si>
@@ -61,9 +57,6 @@
     <t>Silvia Margarita Gracias Ortiz</t>
   </si>
   <si>
-    <t>Joel Alexader Miranda Arriola</t>
-  </si>
-  <si>
     <t>Marcela Ivonne Funes Pineda</t>
   </si>
   <si>
@@ -185,6 +178,12 @@
   </si>
   <si>
     <t>Maria Jose Grande Perez</t>
+  </si>
+  <si>
+    <t>Bono</t>
+  </si>
+  <si>
+    <t>AGENTE</t>
   </si>
 </sst>
 </file>
@@ -563,589 +562,416 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E51"/>
+  <dimension ref="A1:B50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="34.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>5</v>
       </c>
       <c r="B2" s="3">
         <v>30</v>
       </c>
-      <c r="E2" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B3" s="3">
         <v>30</v>
       </c>
-      <c r="E3" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B4" s="3">
         <v>30</v>
       </c>
-      <c r="E4" s="3">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>8</v>
       </c>
       <c r="B5" s="3">
         <v>35</v>
       </c>
-      <c r="E5" s="3">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B6" s="3">
         <v>30</v>
       </c>
-      <c r="E6" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B7" s="3">
         <v>30</v>
       </c>
-      <c r="E7" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B8" s="3">
         <v>47.5</v>
       </c>
-      <c r="E8" s="3">
-        <v>4.75</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B9" s="3">
         <v>25</v>
       </c>
-      <c r="E9" s="3">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B10" s="3">
-        <v>218.85</v>
-      </c>
-      <c r="C10" s="3">
-        <v>6.5654999999999992</v>
-      </c>
-      <c r="D10" s="3">
-        <v>15.866625000000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>182.03</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B11" s="3">
-        <v>182.03</v>
-      </c>
-      <c r="E11" s="3">
-        <v>18.202999999999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B12" s="3">
         <v>35</v>
       </c>
-      <c r="E12" s="3">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B18" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="3">
         <v>35</v>
       </c>
-      <c r="E13" s="3">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="3">
-        <v>55</v>
-      </c>
-      <c r="E14" s="3">
-        <v>5.5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="3">
-        <v>40</v>
-      </c>
-      <c r="E15" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="B20" s="3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B21" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="3">
+        <v>32.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="3">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" s="3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" s="3">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" s="3">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" s="3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" s="3">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" s="3">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33" s="3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34" s="3">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35" s="3">
+        <v>31.88</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36" s="3">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>35</v>
-      </c>
-      <c r="E16" s="3">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" s="3">
-        <v>55</v>
-      </c>
-      <c r="E17" s="3">
-        <v>5.5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" s="3">
-        <v>20</v>
-      </c>
-      <c r="E18" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" s="3">
-        <v>50</v>
-      </c>
-      <c r="E19" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" s="3">
-        <v>35</v>
-      </c>
-      <c r="E20" s="3">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" s="3">
-        <v>80</v>
-      </c>
-      <c r="E21" s="3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="3">
-        <v>15</v>
-      </c>
-      <c r="E22" s="3">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>26</v>
-      </c>
-      <c r="B23" s="3">
-        <v>5</v>
-      </c>
-      <c r="E23" s="3">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>27</v>
-      </c>
-      <c r="B24" s="3">
-        <v>20</v>
-      </c>
-      <c r="E24" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>28</v>
-      </c>
-      <c r="B25" s="3">
-        <v>32.5</v>
-      </c>
-      <c r="E25" s="3">
-        <v>3.25</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>29</v>
-      </c>
-      <c r="B26" s="3">
-        <v>20</v>
-      </c>
-      <c r="E26" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>30</v>
-      </c>
-      <c r="B27" s="3">
-        <v>315</v>
-      </c>
-      <c r="E27" s="3">
-        <v>31.5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>31</v>
-      </c>
-      <c r="B28" s="3">
-        <v>110</v>
-      </c>
-      <c r="E28" s="3">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>32</v>
-      </c>
-      <c r="B29" s="3">
-        <v>145</v>
-      </c>
-      <c r="E29" s="3">
-        <v>14.5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>33</v>
-      </c>
-      <c r="B30" s="3">
-        <v>17.5</v>
-      </c>
-      <c r="E30" s="3">
-        <v>1.75</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>34</v>
-      </c>
-      <c r="B31" s="3">
-        <v>23</v>
-      </c>
-      <c r="E31" s="3">
-        <v>2.2999999999999998</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>35</v>
-      </c>
-      <c r="B32" s="3">
-        <v>248</v>
-      </c>
-      <c r="E32" s="3">
-        <v>24.8</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>36</v>
-      </c>
-      <c r="B33" s="3">
-        <v>173</v>
-      </c>
-      <c r="E33" s="3">
-        <v>17.3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>37</v>
-      </c>
-      <c r="B34" s="3">
-        <v>23</v>
-      </c>
-      <c r="E34" s="3">
-        <v>2.2999999999999998</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>38</v>
-      </c>
-      <c r="B35" s="3">
-        <v>12.5</v>
-      </c>
-      <c r="E35" s="3">
-        <v>1.25</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>39</v>
-      </c>
-      <c r="B36" s="3">
-        <v>31.88</v>
-      </c>
-      <c r="E36" s="3">
-        <v>3.1880000000000002</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>40</v>
       </c>
       <c r="B37" s="3">
         <v>12.5</v>
       </c>
-      <c r="E37" s="3">
-        <v>1.25</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B38" s="3">
         <v>12.5</v>
       </c>
-      <c r="E38" s="3">
-        <v>1.25</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B39" s="3">
-        <v>12.5</v>
-      </c>
-      <c r="E39" s="3">
-        <v>1.25</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+        <v>42.5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B40" s="3">
         <v>42.5</v>
       </c>
-      <c r="E40" s="3">
-        <v>4.25</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B41" s="3">
-        <v>42.5</v>
-      </c>
-      <c r="E41" s="3">
-        <v>4.25</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B42" s="3">
         <v>12.5</v>
       </c>
-      <c r="E42" s="3">
-        <v>1.25</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B43" s="3">
-        <v>12.5</v>
-      </c>
-      <c r="E43" s="3">
-        <v>1.25</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B44" s="3">
-        <v>25</v>
-      </c>
-      <c r="E44" s="3">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+        <v>42.5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B45" s="3">
-        <v>42.5</v>
-      </c>
-      <c r="E45" s="3">
-        <v>4.25</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B46" s="3">
         <v>40</v>
       </c>
-      <c r="E46" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B47" s="3">
         <v>40</v>
       </c>
-      <c r="E47" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B48" s="3">
         <v>40</v>
       </c>
-      <c r="E48" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B49" s="3">
         <v>40</v>
       </c>
-      <c r="E49" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B50" s="3">
         <v>40</v>
-      </c>
-      <c r="E50" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>54</v>
-      </c>
-      <c r="B51" s="3">
-        <v>40</v>
-      </c>
-      <c r="E51" s="3">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
